--- a/Data/combined_data/South_America/Argentina.xlsx
+++ b/Data/combined_data/South_America/Argentina.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="0" windowWidth="23088" windowHeight="5136"/>
+    <workbookView xWindow="-456" yWindow="2772" windowWidth="23088" windowHeight="6264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:N770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -504,7 +504,7 @@
     <col min="4" max="4" width="12.44140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="19.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="13" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="8.88671875" style="9"/>
     <col min="10" max="10" width="8.88671875" style="2"/>
